--- a/ESPN sports website/IPL/Kolkata Knight Riders/Andre Russell.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Andre Russell.xlsx
@@ -445,31 +445,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C2" t="str">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D2" t="str">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" t="str">
-        <v>220.00</v>
+        <v>225.80</v>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>April 06, 2022</v>
+        <v>April 01, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C3" t="str">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D3" t="str">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <v>225.80</v>
+        <v>236.84</v>
       </c>
       <c r="H3" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J3" t="str">
-        <v>April 01, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 6 wickets (with 33 balls remaining)</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C5" t="str">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>114.28</v>
+        <v>45.45</v>
       </c>
       <c r="H5" t="str">
-        <v>Delhi Capitals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>April 10, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C6" t="str">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D6" t="str">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>196.00</v>
+        <v>180.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>April 15, 2022</v>
+        <v>May 09, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
+        <v>KKR won by 52 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C7" t="str">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D7" t="str">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="str">
-        <v>180.00</v>
+        <v>196.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J7" t="str">
-        <v>May 09, 2022</v>
+        <v>April 15, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>KKR won by 52 runs</v>
+        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C8" t="str">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D8" t="str">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>0.00</v>
+        <v>220.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I8" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>April 28, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C9" t="str">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="str">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>138.88</v>
+        <v>114.28</v>
       </c>
       <c r="H9" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I9" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J9" t="str">
-        <v>March 30, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C10" t="str">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D10" t="str">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
         <v>3</v>
       </c>
-      <c r="F10" t="str">
-        <v>4</v>
-      </c>
       <c r="G10" t="str">
-        <v>175.00</v>
+        <v>138.88</v>
       </c>
       <c r="H10" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I10" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J10" t="str">
-        <v>May 14, 2022</v>
+        <v>March 30, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>KKR won by 54 runs</v>
+        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="11">
@@ -795,10 +795,10 @@
         <v>Andre Russell</v>
       </c>
       <c r="C12" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="str">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E12" t="str">
         <v>0</v>
@@ -807,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>45.45</v>
+        <v>0.00</v>
       </c>
       <c r="H12" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I12" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J12" t="str">
-        <v>May 18, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Andre Russell</v>
       </c>
       <c r="C13" t="str">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D13" t="str">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="str">
         <v>3</v>
       </c>
       <c r="F13" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="str">
-        <v>236.84</v>
+        <v>175.00</v>
       </c>
       <c r="H13" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I13" t="str">
         <v>Pune</v>
       </c>
       <c r="J13" t="str">
-        <v>May 07, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
